--- a/DEV/org.openl.rules/test/rules/helpers/IntRangeTest.xlsx
+++ b/DEV/org.openl.rules/test/rules/helpers/IntRangeTest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.rules\test\rules\helpers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ADDA36-EA43-4CB3-9E99-37F50A53BCEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="1290" yWindow="1035" windowWidth="31830" windowHeight="16965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,9 +72,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>Rules String getLossAssessment(boolean booVal, int income)</t>
-  </si>
-  <si>
     <t>Flag</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
 return "Hello2";</t>
   </si>
   <si>
-    <t>Rules String testNegativeRange(boolean booVal, int income)</t>
-  </si>
-  <si>
     <t>&lt; -100</t>
   </si>
   <si>
@@ -108,24 +108,12 @@
     <t>[-100 .. -20)</t>
   </si>
   <si>
-    <t>Rules String testShortRange(boolean booVal, int income)</t>
-  </si>
-  <si>
     <t>200 .. 300</t>
   </si>
   <si>
-    <t>Method BigDecimal getBigDecimalValue(int income)</t>
-  </si>
-  <si>
-    <t>getBigDecimalValue(income).intValue()</t>
-  </si>
-  <si>
     <t>getBigDecimalValue(income).shortValueExact()</t>
   </si>
   <si>
-    <t>Rules String testByteRange(boolean booVal, int income)</t>
-  </si>
-  <si>
     <t>getBigDecimalValue(income).byteValueExact()</t>
   </si>
   <si>
@@ -135,15 +123,6 @@
     <t>101 ..120</t>
   </si>
   <si>
-    <t>Rules String testMaxInt(boolean booVal, int income)</t>
-  </si>
-  <si>
-    <t>2147483640 .. 2147483647</t>
-  </si>
-  <si>
-    <t>Rules String testMaxInt1(boolean booVal, int income)</t>
-  </si>
-  <si>
     <t>// NOTE! The value is incremented by 1.</t>
   </si>
   <si>
@@ -172,13 +151,40 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Rules String getLossAssessment(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Rules String testNegativeRange(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Rules String testShortRange(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Rules String testByteRange(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxInt(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Rules String testMaxInt1(boolean booVal, long income)</t>
+  </si>
+  <si>
+    <t>Method BigDecimal getBigDecimalValue(long income)</t>
+  </si>
+  <si>
+    <t>getBigDecimalValue(income).longValue()</t>
+  </si>
+  <si>
+    <t>9223372036854775640 .. 9223372036854775807</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,15 +439,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="AFE" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal_Correction of Windstorm Ded" xfId="4"/>
+    <cellStyle name="AFE" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Correction of Windstorm Ded" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Процентный 2" xfId="5"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Процентный 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,7 +502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,9 +534,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,6 +586,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -729,14 +779,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C6:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
@@ -748,23 +798,23 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="I7" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>0</v>
       </c>
@@ -775,23 +825,23 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -800,9 +850,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -811,12 +861,12 @@
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="59.25" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <v>5000</v>
@@ -825,12 +875,12 @@
         <v>8</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>10000</v>
@@ -839,9 +889,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -850,9 +900,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <v>5000</v>
@@ -861,9 +911,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4">
         <v>10000</v>
@@ -872,9 +922,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
@@ -883,23 +933,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="29" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
@@ -910,20 +960,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
@@ -932,9 +982,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -943,65 +993,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
         <v>0</v>
       </c>
@@ -1012,20 +1062,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -1034,9 +1084,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>3</v>
@@ -1045,20 +1095,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="4">
         <v>100</v>
@@ -1067,42 +1117,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" s="29" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48" s="12" t="s">
         <v>0</v>
       </c>
@@ -1110,15 +1160,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:9">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="3:9">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="3:9">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D51" s="5" t="s">
         <v>3</v>
       </c>
@@ -1134,39 +1184,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="3:9">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D52" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D53" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="3:9">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D54" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="3:9">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="29" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
     </row>
-    <row r="59" spans="3:9">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
         <v>0</v>
       </c>
@@ -1177,20 +1227,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:9">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="3:9">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -1199,9 +1249,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="3:9">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>3</v>
@@ -1210,24 +1260,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="3:9">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" s="29" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E66" s="29"/>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="15" t="s">
         <v>0</v>
       </c>
@@ -1235,15 +1285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
         <v>3</v>
       </c>
@@ -1259,22 +1309,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75" s="28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76" s="25" t="s">
         <v>0</v>
       </c>
@@ -1285,69 +1335,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77" s="19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F77" s="24"/>
     </row>
-    <row r="78" spans="4:6">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78" s="25"/>
       <c r="E78" s="26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F78" s="24"/>
     </row>
-    <row r="79" spans="4:6" ht="15.75">
+    <row r="79" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D79" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="4:6">
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="4:6">
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="4:6">
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="22" t="s">
@@ -1370,26 +1420,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
